--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_1_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_1_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01155007082828718</v>
+        <v>0.1278635932895194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01155007082828718</v>
+        <v>0.1278635932895194</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>34.52542603705514</v>
+        <v>24.34961020373348</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[8.978892994811417, 60.071959079298864]</t>
+          <t>[-4.1750986219058674, 52.87431902937283]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.009197018009289515</v>
+        <v>0.09243168241607336</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009197018009289515</v>
+        <v>0.09243168241607336</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.5220264069028078, 2.5598162362583503]</t>
+          <t>[0.044026323473730145, 3.113290017070966]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.003869627727870251</v>
+        <v>0.04403655663985329</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003869627727870251</v>
+        <v>0.04403655663985329</v>
       </c>
       <c r="T2" t="n">
-        <v>70.40872490777667</v>
+        <v>69.67338827129973</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.10792862274323, 85.70952119281012]</t>
+          <t>[53.34317252712222, 86.00360401547724]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.3197446447939e-12</v>
+        <v>4.798472730271897e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>5.3197446447939e-12</v>
+        <v>4.798472730271897e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.2235035035036</v>
+        <v>17.0490090090091</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.52296296296304</v>
+        <v>11.48756756756763</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.92404404404417</v>
+        <v>22.61045045045057</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.422900297132212e-05</v>
+        <v>8.281595349046711e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.422900297132212e-05</v>
+        <v>8.281595349046711e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.77111813388294</v>
+        <v>45.25451309703597</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[24.629296692640978, 72.91293957512491]</t>
+          <t>[21.090280276131836, 69.4187459179401]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.000188141721106927</v>
+        <v>0.0004704183200632261</v>
       </c>
       <c r="O3" t="n">
-        <v>0.000188141721106927</v>
+        <v>0.0004704183200632261</v>
       </c>
       <c r="P3" t="n">
-        <v>2.094395102393196</v>
+        <v>1.880552959806502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.578658170272349, 2.6101320345140424]</t>
+          <t>[1.2893423303021168, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.893374346195742e-10</v>
+        <v>7.764234122298319e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.893374346195742e-10</v>
+        <v>7.764234122298319e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>66.8828308868267</v>
+        <v>61.53764235988509</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[54.04655131857986, 79.71911045507353]</t>
+          <t>[48.40896710459118, 74.666317615179]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.123545700920658e-13</v>
+        <v>3.057554209817681e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.123545700920658e-13</v>
+        <v>3.057554209817681e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>15.21333333333342</v>
+        <v>15.95495495495504</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.3402202202203</v>
+        <v>13.81243243243251</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.08644644644654</v>
+        <v>18.09747747747758</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01011612561750086</v>
+        <v>0.0002291611244584768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01011612561750086</v>
+        <v>0.0002291611244584768</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>26.29242497977283</v>
+        <v>35.88436904331667</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[4.1105805179904245, 48.47426944155522]</t>
+          <t>[14.193880644646505, 57.57485744198683]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02123225959023567</v>
+        <v>0.001730013369199757</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02123225959023567</v>
+        <v>0.001730013369199757</v>
       </c>
       <c r="P4" t="n">
-        <v>2.257921446724196</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 3.025237370123505]</t>
+          <t>[1.6038160694001942, 2.7610794292811196]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.010326835057754e-07</v>
+        <v>1.340329847110411e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>4.010326835057754e-07</v>
+        <v>1.340329847110411e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>48.32430000597036</v>
+        <v>57.25878047146323</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.59030010022265, 60.058299911718066]</t>
+          <t>[45.962914327062094, 68.55464661586437]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.288931184006969e-10</v>
+        <v>2.704503287986881e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.288931184006969e-10</v>
+        <v>2.704503287986881e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>14.6194194194195</v>
+        <v>14.86090090090098</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.83259259259266</v>
+        <v>12.76396396396403</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.40624624624634</v>
+        <v>16.95783783783793</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002321129136027</v>
+        <v>6.287037146446295e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002321129136027</v>
+        <v>6.287037146446295e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.3423034522292</v>
+        <v>50.92142183958948</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17.685827576696816, 58.99877932776159]</t>
+          <t>[31.804263029172205, 70.03858065000675]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0005206452140129603</v>
+        <v>2.705914632583628e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005206452140129603</v>
+        <v>2.705914632583628e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>3.012658420559582</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.333395144107735, 3.691921697011429]</t>
+          <t>[2.333395144107734, 3.138447916198812]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.57631685482329e-11</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57631685482329e-11</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>58.2733284432021</v>
+        <v>62.9815242570908</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.865683683771955, 70.68097320263226]</t>
+          <t>[52.4207972134724, 73.54225130070921]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.879696481272731e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.879696481272731e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>11.87827827827834</v>
+        <v>12.8551351351352</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.411251251251302</v>
+        <v>11.39639639639646</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.34530530530538</v>
+        <v>14.31387387387395</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02210575639837498</v>
+        <v>2.154981729729499e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02210575639837498</v>
+        <v>2.154981729729499e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>29.4342021920089</v>
+        <v>70.47220387195722</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[4.2050746912599095, 54.66332969275789]</t>
+          <t>[43.23686217664424, 97.7075455672702]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02322991198065139</v>
+        <v>4.5340508187941e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02322991198065139</v>
+        <v>4.5340508187941e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.981211046649774</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.22652705347816, -1.7358950398213882]</t>
+          <t>[2.333395144107734, 3.2390795127101972]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.661891329085563e-05</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.661891329085563e-05</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T6" t="n">
-        <v>62.85392369570519</v>
+        <v>73.45674315659457</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.01736079388709, 77.69048659752329]</t>
+          <t>[58.00601967915949, 88.90746663402965]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.861000573759156e-11</v>
+        <v>1.987521258683955e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>5.861000573759156e-11</v>
+        <v>1.987521258683955e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>10.82750750750757</v>
+        <v>12.67279279279286</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.304624624624662</v>
+        <v>11.03171171171177</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.35039039039047</v>
+        <v>14.31387387387395</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008850743373657988</v>
+        <v>2.72640369169963e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008850743373657988</v>
+        <v>2.72640369169963e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.67053771309591</v>
+        <v>62.39658663123243</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[7.362174806613879, 61.97890061957794]</t>
+          <t>[43.186724702749544, 81.60644855971532]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01399709682597838</v>
+        <v>4.880186699196543e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01399709682597838</v>
+        <v>4.880186699196543e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>2.912026824048196</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.855395060678656, 3.9686585874177367]</t>
+          <t>[-3.459211130078852, -2.679316257115619]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.442494405035077e-06</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.442494405035077e-06</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>58.99673776184999</v>
+        <v>67.13784211170579</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.42390072913399, 74.56957479456598]</t>
+          <t>[54.60930004679889, 79.6663841766127]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.196265753122816e-09</v>
+        <v>4.507505479978136e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.196265753122816e-09</v>
+        <v>4.507505479978136e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>12.24376376376383</v>
+        <v>11.12288288288294</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.406166166166214</v>
+        <v>9.70972972972978</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.08136136136146</v>
+        <v>12.5360360360361</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003356420803405147</v>
+        <v>0.001761210413826042</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003356420803405147</v>
+        <v>0.001761210413826042</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.10767215308027</v>
+        <v>43.17187732824567</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.900771094520195, 72.31457321164035]</t>
+          <t>[17.39951868242308, 68.94423597406826]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.004728202500928314</v>
+        <v>0.001533653867649587</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004728202500928314</v>
+        <v>0.001533653867649587</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.905737349266235</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.723369070921236, -2.0881056276112337]</t>
+          <t>[-3.9120533143800826, -2.3522635684536186]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.948161296842613e-09</v>
+        <v>2.559914502597849e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>5.948161296842613e-09</v>
+        <v>2.559914502597849e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>61.28030082536182</v>
+        <v>57.72845560448977</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.8535065751751, 77.70709507554854]</t>
+          <t>[42.123591635691405, 73.33331957328812]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.775340319198904e-09</v>
+        <v>2.195576387364895e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.775340319198904e-09</v>
+        <v>2.195576387364895e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>11.88528528528555</v>
+        <v>12.7416216216219</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.540940940941132</v>
+        <v>9.569009009009218</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.22962962962997</v>
+        <v>15.91423423423458</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.812101641457847e-05</v>
+        <v>0.005982681524594913</v>
       </c>
       <c r="I9" t="n">
-        <v>7.812101641457847e-05</v>
+        <v>0.005982681524594913</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.39116076410504</v>
+        <v>39.02240000755313</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25.481242258586704, 69.30107926962337]</t>
+          <t>[11.978951091348023, 66.06584892375824]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.559236497489685e-05</v>
+        <v>0.005657151655191539</v>
       </c>
       <c r="O9" t="n">
-        <v>7.559236497489685e-05</v>
+        <v>0.005657151655191539</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.044105794469389</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.610158524845928, -2.47805306409285]</t>
+          <t>[2.0818161528292727, 3.893184890034197]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>3.445776775024001e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>3.445776775024001e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>57.69515066190949</v>
+        <v>72.8564484528124</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.233579300355956, 71.15672202346303]</t>
+          <t>[56.81445309034568, 88.89844381527912]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.219580240771847e-11</v>
+        <v>7.859268791321483e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>4.219580240771847e-11</v>
+        <v>7.859268791321483e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>12.45125125125153</v>
+        <v>13.40684684684714</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.13593593593617</v>
+        <v>9.722522522522738</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.7665665665669</v>
+        <v>17.09117117117154</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.134227632336875</v>
+        <v>0.000472701856951141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.134227632336875</v>
+        <v>0.000472701856951141</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>24.65917049050655</v>
+        <v>41.36945758763776</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.807034354235768, 55.125375335248876]</t>
+          <t>[17.931716449993004, 64.80719872528252]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1100392236290282</v>
+        <v>0.0009022329987280475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1100392236290282</v>
+        <v>0.0009022329987280475</v>
       </c>
       <c r="P10" t="n">
-        <v>2.861711025792505</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.7736053981812709, 4.949816653403738]</t>
+          <t>[2.257921446724195, 3.6416058987557367]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.008325442656839765</v>
+        <v>4.891576033116962e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008325442656839765</v>
+        <v>4.891576033116962e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>67.63987842158004</v>
+        <v>64.45444068558</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.77725519718406, 84.50250164597601]</t>
+          <t>[50.93720109182725, 77.97168027933274]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.645761387753964e-10</v>
+        <v>1.816324868286756e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.645761387753964e-10</v>
+        <v>1.816324868286756e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>13.99479479479511</v>
+        <v>13.56036036036065</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.453853853853976</v>
+        <v>10.74594594594618</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.53573573573624</v>
+        <v>16.37477477477513</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1181861915146893</v>
+        <v>0.0003334298603493435</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1181861915146893</v>
+        <v>0.0003334298603493435</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>22.13678572651244</v>
+        <v>48.99499542121059</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-6.597664052777851, 50.87123550580272]</t>
+          <t>[18.829779987617982, 79.1602108548032]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1277515973068424</v>
+        <v>0.002058626401258756</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1277515973068424</v>
+        <v>0.002058626401258756</v>
       </c>
       <c r="P11" t="n">
-        <v>2.144710900648889</v>
+        <v>2.006342455445733</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 5.081895623824932]</t>
+          <t>[1.364816027685654, 2.6478688832058115]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1483350625256132</v>
+        <v>1.122266188868792e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1483350625256132</v>
+        <v>1.122266188868792e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46613933544634</v>
+        <v>63.5261810331336</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[55.09229650752164, 85.83998216337105]</t>
+          <t>[47.092308480385455, 79.96005358588175]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.984102102729594e-12</v>
+        <v>7.082905373323456e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>5.984102102729594e-12</v>
+        <v>7.082905373323456e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.92752752752791</v>
+        <v>17.39819819819858</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.91361361361372</v>
+        <v>14.78846846846879</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.94144144144209</v>
+        <v>20.00792792792837</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003676982132397866</v>
+        <v>2.525523542518116e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003676982132397866</v>
+        <v>2.525523542518116e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>38.2556968817027</v>
+        <v>57.73072104686539</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[15.6563984179787, 60.854995345426694]</t>
+          <t>[34.94774549528731, 80.51369659844347]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001383363729770215</v>
+        <v>6.509821331990295e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001383363729770215</v>
+        <v>6.509821331990295e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792500312859041</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.0880791372793484, 2.4969214884387343]</t>
+          <t>[1.490605523324886, 2.371131992799503]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.056898272932543e-06</v>
+        <v>2.182232172742715e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>6.056898272932543e-06</v>
+        <v>2.182232172742715e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>60.40224729895179</v>
+        <v>68.91197901254603</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.40654696483977, 73.39794763306381]</t>
+          <t>[56.01183997330202, 81.81211805179004]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.943290138863631e-12</v>
+        <v>4.996003610813204e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>3.943290138863631e-12</v>
+        <v>4.996003610813204e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>18.36816816816858</v>
+        <v>17.70522522522561</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.48688688688724</v>
+        <v>15.91423423423458</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.24944944944993</v>
+        <v>19.49621621621664</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01788600535397311</v>
+        <v>0.0007203310921424233</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01788600535397311</v>
+        <v>0.0007203310921424233</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>32.26083380397954</v>
+        <v>40.87769639857494</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[2.9056141201837917, 61.6160534877753]</t>
+          <t>[16.314751323880515, 65.44064147326937]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.03197820171553523</v>
+        <v>0.001634246585420662</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03197820171553523</v>
+        <v>0.001634246585420662</v>
       </c>
       <c r="P13" t="n">
-        <v>1.239026532046426</v>
+        <v>1.30192127986604</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.04402632347373192, 2.434026740619119]</t>
+          <t>[0.5723422051585008, 2.031500354573579]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.04245911815896886</v>
+        <v>0.0008033516613883407</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04245911815896886</v>
+        <v>0.0008033516613883407</v>
       </c>
       <c r="T13" t="n">
-        <v>70.40120177597996</v>
+        <v>52.4726512151335</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[54.67439351864002, 86.1280100333199]</t>
+          <t>[38.1147314974364, 66.8305709328306]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.202282717827075e-11</v>
+        <v>2.98183766567206e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>1.202282717827075e-11</v>
+        <v>2.98183766567206e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>20.63203203203249</v>
+        <v>20.26378378378423</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.7441441441445</v>
+        <v>17.29585585585624</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.51991991992049</v>
+        <v>23.23171171171222</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_1_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_1_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1278635932895194</v>
+        <v>5.165445725485718e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1278635932895194</v>
+        <v>5.165445725485718e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>24.34961020373348</v>
+        <v>51.48454239511537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.1750986219058674, 52.87431902937283]</t>
+          <t>[31.666871243025795, 71.30221354720494]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.09243168241607336</v>
+        <v>4.226466738144197e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09243168241607336</v>
+        <v>4.226466738144197e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 3.113290017070966]</t>
+          <t>[1.0880791372793466, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04403655663985329</v>
+        <v>2.62921366900315e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04403655663985329</v>
+        <v>2.62921366900315e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>69.67338827129973</v>
+        <v>52.64727852959626</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[53.34317252712222, 86.00360401547724]</t>
+          <t>[40.04736279928129, 65.24719425991124]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.798472730271897e-11</v>
+        <v>8.626943603928794e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>4.798472730271897e-11</v>
+        <v>8.626943603928794e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.0490090090091</v>
+        <v>17.16276276276286</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.48756756756763</v>
+        <v>15.47387387387396</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.61045045045057</v>
+        <v>18.85165165165176</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.281595349046711e-05</v>
+        <v>4.752670581753549e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>8.281595349046711e-05</v>
+        <v>4.752670581753549e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.25451309703597</v>
+        <v>49.77081475701379</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.090280276131836, 69.4187459179401]</t>
+          <t>[25.97924912500065, 73.56238038902693]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0004704183200632261</v>
+        <v>0.0001193075859160508</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004704183200632261</v>
+        <v>0.0001193075859160508</v>
       </c>
       <c r="P3" t="n">
-        <v>1.880552959806502</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 2.4717635893108882]</t>
+          <t>[1.7673424137311935, 2.7233425805893505]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.764234122298319e-08</v>
+        <v>2.864819492742754e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>7.764234122298319e-08</v>
+        <v>2.864819492742754e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>61.53764235988509</v>
+        <v>54.24616079042937</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.40896710459118, 74.666317615179]</t>
+          <t>[41.82720937781553, 66.66511220304321]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.057554209817681e-12</v>
+        <v>2.452194003410568e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.057554209817681e-12</v>
+        <v>2.452194003410568e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>15.95495495495504</v>
+        <v>14.65225225225234</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.81243243243251</v>
+        <v>12.91771771771779</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.09747747747758</v>
+        <v>16.38678678678688</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002291611244584768</v>
+        <v>9.563136449919352e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002291611244584768</v>
+        <v>9.563136449919352e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>35.88436904331667</v>
+        <v>46.27646892483317</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.193880644646505, 57.57485744198683]</t>
+          <t>[19.028316626634165, 73.52462122303218]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001730013369199757</v>
+        <v>0.001339089567526486</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001730013369199757</v>
+        <v>0.001339089567526486</v>
       </c>
       <c r="P4" t="n">
-        <v>2.182447749340657</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 2.7610794292811196]</t>
+          <t>[1.8805529598065025, 2.962342622303889]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.340329847110411e-09</v>
+        <v>1.200439747606197e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.340329847110411e-09</v>
+        <v>1.200439747606197e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>57.25878047146323</v>
+        <v>56.82823109088987</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.962914327062094, 68.55464661586437]</t>
+          <t>[42.950125968258845, 70.7063362135209]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.704503287986881e-13</v>
+        <v>1.50875534288275e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.704503287986881e-13</v>
+        <v>1.50875534288275e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.86090090090098</v>
+        <v>14.01321321321329</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.76396396396403</v>
+        <v>12.05045045045052</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.95783783783793</v>
+        <v>15.97597597597606</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.287037146446295e-08</v>
+        <v>0.002683616001507794</v>
       </c>
       <c r="I5" t="n">
-        <v>6.287037146446295e-08</v>
+        <v>0.002683616001507794</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.92142183958948</v>
+        <v>37.80556441085207</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[31.804263029172205, 70.03858065000675]</t>
+          <t>[9.977363676854125, 65.63376514485002]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.705914632583628e-06</v>
+        <v>0.008863840660013445</v>
       </c>
       <c r="O5" t="n">
-        <v>2.705914632583628e-06</v>
+        <v>0.008863840660013445</v>
       </c>
       <c r="P5" t="n">
-        <v>2.735921530153273</v>
+        <v>2.52207938756658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 3.138447916198812]</t>
+          <t>[1.8176582119868874, 3.2265005631462733]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.958981225655634e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.958981225655634e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>62.9815242570908</v>
+        <v>53.83684713624342</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[52.4207972134724, 73.54225130070921]</t>
+          <t>[39.02204654483272, 68.65164772765412]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.433864526058983e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.433864526058983e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>12.8551351351352</v>
+        <v>13.64804804804812</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.39639639639646</v>
+        <v>11.09189189189196</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.31387387387395</v>
+        <v>16.2042042042043</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.154981729729499e-07</v>
+        <v>0.005490625480679912</v>
       </c>
       <c r="I6" t="n">
-        <v>2.154981729729499e-07</v>
+        <v>0.005490625480679912</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>70.47220387195722</v>
+        <v>36.20344549933032</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[43.23686217664424, 97.7075455672702]</t>
+          <t>[11.28234892612349, 61.12454207253715]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.5340508187941e-06</v>
+        <v>0.005365640375451841</v>
       </c>
       <c r="O6" t="n">
-        <v>4.5340508187941e-06</v>
+        <v>0.005365640375451841</v>
       </c>
       <c r="P6" t="n">
-        <v>2.786237328408966</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 3.2390795127101972]</t>
+          <t>[-4.037842810019315, -2.1510003754308484]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.917708091272232e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.917708091272232e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>73.45674315659457</v>
+        <v>58.97359634746753</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[58.00601967915949, 88.90746663402965]</t>
+          <t>[43.57576454082425, 74.37142815411082]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.987521258683955e-12</v>
+        <v>9.017631086294386e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.987521258683955e-12</v>
+        <v>9.017631086294386e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>12.67279279279286</v>
+        <v>11.22882882882889</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.03171171171177</v>
+        <v>7.805405405405443</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.31387387387395</v>
+        <v>14.65225225225234</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72640369169963e-08</v>
+        <v>4.646121677565063e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72640369169963e-08</v>
+        <v>4.646121677565063e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>62.39658663123243</v>
+        <v>52.96249524981735</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[43.186724702749544, 81.60644855971532]</t>
+          <t>[26.648459566712532, 79.27653093292217]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.880186699196543e-08</v>
+        <v>0.000197228067473354</v>
       </c>
       <c r="O7" t="n">
-        <v>4.880186699196543e-08</v>
+        <v>0.000197228067473354</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.069263693597235</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.459211130078852, -2.679316257115619]</t>
+          <t>[-3.572421676154159, -2.3648425180175416]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.058797990566745e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.058797990566745e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>67.13784211170579</v>
+        <v>56.39897721188832</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.60930004679889, 79.6663841766127]</t>
+          <t>[41.05624735179882, 71.74170707197781]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>2.577128288550057e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>2.577128288550057e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>11.12288288288294</v>
+        <v>10.77237237237243</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.70972972972978</v>
+        <v>8.581381381381426</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5360360360361</v>
+        <v>12.96336336336343</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001761210413826042</v>
+        <v>0.0008339959745604641</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001761210413826042</v>
+        <v>0.0008339959745604641</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.17187732824567</v>
+        <v>41.03427741924431</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[17.39951868242308, 68.94423597406826]</t>
+          <t>[15.459073453584786, 66.60948138490383]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001533653867649587</v>
+        <v>0.002305197228878564</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001533653867649587</v>
+        <v>0.002305197228878564</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.9120533143800826, -2.3522635684536186]</t>
+          <t>[-2.905737349266235, -1.6981581911296182]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.559914502597849e-10</v>
+        <v>1.01562647181197e-09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.559914502597849e-10</v>
+        <v>1.01562647181197e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>57.72845560448977</v>
+        <v>61.84938283112854</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.123591635691405, 73.33331957328812]</t>
+          <t>[47.79024051352221, 75.90852514873487]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.195576387364895e-09</v>
+        <v>1.996469656262434e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.195576387364895e-09</v>
+        <v>1.996469656262434e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>12.7416216216219</v>
+        <v>9.521861861862089</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.569009009009218</v>
+        <v>7.024324324324493</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.91423423423458</v>
+        <v>12.01939939939968</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005982681524594913</v>
+        <v>0.0003760518974621485</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005982681524594913</v>
+        <v>0.0003760518974621485</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>39.02240000755313</v>
+        <v>53.47275664252742</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[11.978951091348023, 66.06584892375824]</t>
+          <t>[23.32307530009909, 83.62243798495575]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.005657151655191539</v>
+        <v>0.0008575744670389351</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005657151655191539</v>
+        <v>0.0008575744670389351</v>
       </c>
       <c r="P9" t="n">
-        <v>2.987500521431735</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.0818161528292727, 3.893184890034197]</t>
+          <t>[-3.5472637770263127, -2.264210921506157]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.445776775024001e-08</v>
+        <v>8.5096374391469e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>3.445776775024001e-08</v>
+        <v>8.5096374391469e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>72.8564484528124</v>
+        <v>64.57307024711646</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[56.81445309034568, 88.89844381527912]</t>
+          <t>[47.76238775239273, 81.3837527418402]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.859268791321483e-12</v>
+        <v>8.357050607088468e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>7.859268791321483e-12</v>
+        <v>8.357050607088468e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>13.40684684684714</v>
+        <v>12.01939939939969</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.722522522522738</v>
+        <v>9.365765765765989</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.09117117117154</v>
+        <v>14.67303303303338</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000472701856951141</v>
+        <v>0.004008653580567012</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000472701856951141</v>
+        <v>0.004008653580567012</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.36945758763776</v>
+        <v>36.33576004803547</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[17.931716449993004, 64.80719872528252]</t>
+          <t>[12.121627151066221, 60.54989294500473]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0009022329987280475</v>
+        <v>0.004129187536425105</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009022329987280475</v>
+        <v>0.004129187536425105</v>
       </c>
       <c r="P10" t="n">
-        <v>2.949763672739966</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.257921446724195, 3.6416058987557367]</t>
+          <t>[2.220184598032427, 3.880605940470275]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.891576033116962e-11</v>
+        <v>2.60723931333473e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>4.891576033116962e-11</v>
+        <v>2.60723931333473e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>64.45444068558</v>
+        <v>56.85004314202652</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.93720109182725, 77.97168027933274]</t>
+          <t>[42.621984256561284, 71.07810202749175]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.816324868286756e-12</v>
+        <v>2.939051224615241e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.816324868286756e-12</v>
+        <v>2.939051224615241e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>13.56036036036065</v>
+        <v>13.37223223223255</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.74594594594618</v>
+        <v>9.938118118118357</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.37477477477513</v>
+        <v>16.80634634634675</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003334298603493435</v>
+        <v>0.002023925341845034</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003334298603493435</v>
+        <v>0.002023925341845034</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.99499542121059</v>
+        <v>38.9534740623449</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[18.829779987617982, 79.1602108548032]</t>
+          <t>[11.678513825824226, 66.22843429886557]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002058626401258756</v>
+        <v>0.006126115099855278</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002058626401258756</v>
+        <v>0.006126115099855278</v>
       </c>
       <c r="P11" t="n">
-        <v>2.006342455445733</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.364816027685654, 2.6478688832058115]</t>
+          <t>[0.9371317425122712, 2.6478688832058115]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.122266188868792e-07</v>
+        <v>0.000116568057580535</v>
       </c>
       <c r="S11" t="n">
-        <v>1.122266188868792e-07</v>
+        <v>0.000116568057580535</v>
       </c>
       <c r="T11" t="n">
-        <v>63.5261810331336</v>
+        <v>60.21955304149231</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.092308480385455, 79.96005358588175]</t>
+          <t>[44.864738086387646, 75.57436799659698]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.082905373323456e-10</v>
+        <v>4.836677724995297e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>7.082905373323456e-10</v>
+        <v>4.836677724995297e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>17.39819819819858</v>
+        <v>18.57543543543588</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.78846846846879</v>
+        <v>15.03725725725762</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.00792792792837</v>
+        <v>22.11361361361414</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.525523542518116e-07</v>
+        <v>3.648121673305305e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.525523542518116e-07</v>
+        <v>3.648121673305305e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>57.73072104686539</v>
+        <v>46.83698966669673</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[34.94774549528731, 80.51369659844347]</t>
+          <t>[24.49447125643242, 69.17950807696104]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6.509821331990295e-06</v>
+        <v>0.0001160268000652831</v>
       </c>
       <c r="O12" t="n">
-        <v>6.509821331990295e-06</v>
+        <v>0.0001160268000652831</v>
       </c>
       <c r="P12" t="n">
-        <v>1.930868758062195</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.490605523324886, 2.371131992799503]</t>
+          <t>[1.5157634224527339, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.182232172742715e-11</v>
+        <v>4.306810463816646e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>2.182232172742715e-11</v>
+        <v>4.306810463816646e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>68.91197901254603</v>
+        <v>57.78425195789202</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[56.01183997330202, 81.81211805179004]</t>
+          <t>[45.74938584842013, 69.8191180673639]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>1.469491195393857e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>1.469491195393857e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>17.70522522522561</v>
+        <v>17.58682682682725</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.91423423423458</v>
+        <v>15.45351351351388</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.49621621621664</v>
+        <v>19.72014014014061</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007203310921424233</v>
+        <v>0.0004992888609290924</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007203310921424233</v>
+        <v>0.0004992888609290924</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>40.87769639857494</v>
+        <v>47.77775350011154</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[16.314751323880515, 65.44064147326937]</t>
+          <t>[18.275994437097935, 77.27951256312515]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.001634246585420662</v>
+        <v>0.00211528756672652</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001634246585420662</v>
+        <v>0.00211528756672652</v>
       </c>
       <c r="P13" t="n">
-        <v>1.30192127986604</v>
+        <v>0.9622896416401172</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 2.031500354573579]</t>
+          <t>[0.37107901213573147, 1.553500271144503]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0008033516613883407</v>
+        <v>0.002018377128186755</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0008033516613883407</v>
+        <v>0.002018377128186755</v>
       </c>
       <c r="T13" t="n">
-        <v>52.4726512151335</v>
+        <v>68.57650960450715</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[38.1147314974364, 66.8305709328306]</t>
+          <t>[52.68892932358035, 84.46408988543395]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.98183766567206e-09</v>
+        <v>3.449174279523959e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.98183766567206e-09</v>
+        <v>3.449174279523959e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>20.26378378378423</v>
+        <v>22.00954954955008</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.29585585585624</v>
+        <v>19.56404404404451</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.23171171171222</v>
+        <v>24.45505505505564</v>
       </c>
     </row>
   </sheetData>
